--- a/Project Management/eCoaching_Log_Permissions.xlsx
+++ b/Project Management/eCoaching_Log_Permissions.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cms\eCoaching_V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cms\eCoaching_V2\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14232"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14232" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Revisions History" sheetId="2" r:id="rId1"/>
     <sheet name="Database Access" sheetId="1" r:id="rId2"/>
     <sheet name="File Share Access" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'File Share Access'!$A$1:$I$34</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="83">
   <si>
     <t>name</t>
   </si>
@@ -151,27 +154,18 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>\\vrivscors01\BCC Scorecards\Coaching</t>
-  </si>
-  <si>
     <t>ETS</t>
   </si>
   <si>
     <t>HRInfo</t>
   </si>
   <si>
-    <t>Inactivations</t>
-  </si>
-  <si>
     <t>Outliers</t>
   </si>
   <si>
     <t>Quality</t>
   </si>
   <si>
-    <t>SDR</t>
-  </si>
-  <si>
     <t>Training</t>
   </si>
   <si>
@@ -191,13 +185,106 @@
   </si>
   <si>
     <t>AD\Virginia.Collins</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>Populated Fileshare permissions</t>
+  </si>
+  <si>
+    <t>EmpInfo</t>
+  </si>
+  <si>
+    <t>Melissa Speegle</t>
+  </si>
+  <si>
+    <t>Kevin Jaquay</t>
+  </si>
+  <si>
+    <t>Scott Potter E</t>
+  </si>
+  <si>
+    <t>Jennifer Foster</t>
+  </si>
+  <si>
+    <t>Deanna Morris-Stringer</t>
+  </si>
+  <si>
+    <t>Tyler McQuillan</t>
+  </si>
+  <si>
+    <t>Jeffery Ross</t>
+  </si>
+  <si>
+    <t>Christopher Gary</t>
+  </si>
+  <si>
+    <t>John Nelson</t>
+  </si>
+  <si>
+    <t>Daniel Callahan</t>
+  </si>
+  <si>
+    <t>Jacqueline McCutcheon</t>
+  </si>
+  <si>
+    <t>Mandy Pratt</t>
+  </si>
+  <si>
+    <t>\\vrivscors01\BCC Scorecards\Coaching\</t>
+  </si>
+  <si>
+    <t>David Hinman</t>
+  </si>
+  <si>
+    <t>Doug Stearns</t>
+  </si>
+  <si>
+    <t>Lili Huang</t>
+  </si>
+  <si>
+    <t>Lisa Stein</t>
+  </si>
+  <si>
+    <t>Alison Yares</t>
+  </si>
+  <si>
+    <t>Brenda Holten</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>John Tiongson</t>
+  </si>
+  <si>
+    <t>VNGT\aspectuser (account that sends aspect files)</t>
+  </si>
+  <si>
+    <t>VNGT\QMTasks (account that sends IQS files)</t>
+  </si>
+  <si>
+    <t>SVC-F1220-PSFT (account that sends PeopleSoft file)</t>
+  </si>
+  <si>
+    <t>VNGT\sqlsscord01 (sql service account for dev instance)</t>
+  </si>
+  <si>
+    <t>VNGT\sqlsscort01 (sql service account for test instance)</t>
+  </si>
+  <si>
+    <t>VNGT\sqlsscorp01 (sql service account for prod instance)</t>
+  </si>
+  <si>
+    <t>Apps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,8 +306,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,8 +328,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -242,11 +361,186 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -256,9 +550,52 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -537,13 +874,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="6" customWidth="1"/>
     <col min="3" max="3" width="27.5546875" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
@@ -574,6 +913,20 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>42660</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -782,7 +1135,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -790,7 +1143,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -875,69 +1228,594 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="48.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="37"/>
+      <c r="I17" s="38"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="40"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="40"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="39" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
+      <c r="B20" s="48"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="40"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="48"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="40"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="48"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="40"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="48"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="40"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="48"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="40"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="48"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="40"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="48"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="40"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="48"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="40"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="48"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="40"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="48"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="40"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="48"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="40"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="48"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="40"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="48"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="48"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="49"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="43" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I34"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Project Management/eCoaching_Log_Permissions.xlsx
+++ b/Project Management/eCoaching_Log_Permissions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14232" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14232" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revisions History" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="88">
   <si>
     <t>name</t>
   </si>
@@ -49,9 +49,6 @@
     <t>AD\Amy.timkar</t>
   </si>
   <si>
-    <t>AD\Bridget.McSweeney</t>
-  </si>
-  <si>
     <t>AD\David.Hinman</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>AD\Susmitha.Palacherla</t>
   </si>
   <si>
-    <t>AD\William.Leferink</t>
-  </si>
-  <si>
     <t>VNGT\211augujo</t>
   </si>
   <si>
@@ -278,6 +272,27 @@
   </si>
   <si>
     <t>Apps</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>AD\Mark.Hackman</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>db_owner</t>
+  </si>
+  <si>
+    <t>ecoaching_admin</t>
+  </si>
+  <si>
+    <t>db_datareader</t>
+  </si>
+  <si>
+    <t>Removed Bill leferink and Bridget McSweeney and added Mark Hackman in DB Access tab. Added role information.</t>
   </si>
 </sst>
 </file>
@@ -540,7 +555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -593,6 +608,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -874,32 +892,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" style="50" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -907,13 +923,13 @@
         <v>42599</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
         <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -921,25 +937,40 @@
         <v>42660</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>42668</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -947,278 +978,364 @@
   <cols>
     <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
+      <c r="C33" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1230,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1244,40 +1361,40 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>43</v>
-      </c>
-      <c r="H1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
@@ -1288,13 +1405,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -1305,14 +1422,14 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5" s="46"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
       <c r="F5" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
@@ -1320,223 +1437,223 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="37"/>
@@ -1544,19 +1661,19 @@
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
       <c r="G17" s="37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H17" s="37"/>
       <c r="I17" s="38"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" s="48"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -1566,12 +1683,12 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -1581,12 +1698,12 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -1596,14 +1713,14 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -1611,7 +1728,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="8"/>
@@ -1619,14 +1736,14 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="40"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="8"/>
@@ -1634,35 +1751,35 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I23" s="40"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24" s="48"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I24" s="40"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" s="48"/>
       <c r="C25" s="8"/>
@@ -1670,14 +1787,14 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="40"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="8"/>
@@ -1685,14 +1802,14 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="40"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27" s="48"/>
       <c r="C27" s="8"/>
@@ -1701,13 +1818,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I27" s="40"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B28" s="48"/>
       <c r="C28" s="8"/>
@@ -1716,13 +1833,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I28" s="40"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B29" s="48"/>
       <c r="C29" s="8"/>
@@ -1731,13 +1848,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I29" s="40"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="8"/>
@@ -1746,13 +1863,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I30" s="40"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B31" s="48"/>
       <c r="C31" s="8"/>
@@ -1761,13 +1878,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I31" s="40"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" s="48"/>
       <c r="C32" s="8"/>
@@ -1777,12 +1894,12 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33" s="48"/>
       <c r="C33" s="8"/>
@@ -1792,12 +1909,12 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" s="49"/>
       <c r="C34" s="42"/>
@@ -1807,7 +1924,7 @@
       <c r="G34" s="42"/>
       <c r="H34" s="42"/>
       <c r="I34" s="43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Project Management/eCoaching_Log_Permissions.xlsx
+++ b/Project Management/eCoaching_Log_Permissions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14232" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14232" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Revisions History" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -293,6 +293,15 @@
   </si>
   <si>
     <t>Removed Bill leferink and Bridget McSweeney and added Mark Hackman in DB Access tab. Added role information.</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>Added Susa.Rager to Generic file share directory</t>
+  </si>
+  <si>
+    <t>Susan Rager</t>
   </si>
 </sst>
 </file>
@@ -555,7 +564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -599,15 +608,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -892,15 +897,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" style="50" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" style="46" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -925,7 +932,7 @@
       <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="46" t="s">
         <v>35</v>
       </c>
       <c r="D2" t="s">
@@ -939,7 +946,7 @@
       <c r="B3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="46" t="s">
         <v>51</v>
       </c>
       <c r="D3" t="s">
@@ -953,10 +960,24 @@
       <c r="B4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="46" t="s">
         <v>87</v>
       </c>
       <c r="D4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>42691</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -970,7 +991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1345,11 +1366,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1392,7 +1413,7 @@
       <c r="A3" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="29" t="s">
         <v>47</v>
       </c>
@@ -1407,7 +1428,7 @@
       <c r="A4" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="42" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -1424,7 +1445,7 @@
       <c r="A5" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
@@ -1655,7 +1676,7 @@
       <c r="A17" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="47"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
@@ -1670,7 +1691,7 @@
       <c r="A18" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="48"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
         <v>47</v>
@@ -1685,7 +1706,7 @@
       <c r="A19" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="48"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
         <v>47</v>
@@ -1700,7 +1721,7 @@
       <c r="A20" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="48"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
         <v>47</v>
@@ -1715,7 +1736,7 @@
       <c r="A21" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="48"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1730,7 +1751,7 @@
       <c r="A22" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="48"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1745,7 +1766,7 @@
       <c r="A23" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="48"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1762,7 +1783,7 @@
       <c r="A24" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="48"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
@@ -1781,7 +1802,7 @@
       <c r="A25" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="48"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1796,7 +1817,7 @@
       <c r="A26" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="48"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1811,7 +1832,7 @@
       <c r="A27" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="48"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1826,7 +1847,7 @@
       <c r="A28" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="48"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1841,7 +1862,7 @@
       <c r="A29" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="48"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1856,7 +1877,7 @@
       <c r="A30" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="48"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1871,7 +1892,7 @@
       <c r="A31" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="48"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1886,7 +1907,7 @@
       <c r="A32" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="48"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1901,7 +1922,7 @@
       <c r="A33" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="48"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1913,19 +1934,34 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="43" t="s">
-        <v>47</v>
-      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="45"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="40"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I34"/>

--- a/Project Management/eCoaching_Log_Permissions.xlsx
+++ b/Project Management/eCoaching_Log_Permissions.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cms\eCoaching_V2\Project Management\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740" tabRatio="931" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740" tabRatio="931" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Revisions History" sheetId="2" r:id="rId1"/>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4909" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4918" uniqueCount="364">
   <si>
     <t>name</t>
   </si>
@@ -1548,6 +1553,18 @@
   </si>
   <si>
     <t>Added additional tabs (RAW superset of data provided by IT)  and updated existing application related tabs for post review cleanup</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>Added Russel Hyde to DB Access tab.SR1759191</t>
+  </si>
+  <si>
+    <t>AD\Russell.Hyde</t>
+  </si>
+  <si>
+    <t>Requsted By Lindsey Simpson, approved by Mike Ingram.</t>
   </si>
 </sst>
 </file>
@@ -1833,7 +1850,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1893,6 +1910,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1900,6 +1920,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1935,12 +1961,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2215,7 +2235,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2223,21 +2243,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="66.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2251,7 +2270,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>42599</v>
       </c>
@@ -2265,7 +2284,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>42660</v>
       </c>
@@ -2279,7 +2298,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>42668</v>
       </c>
@@ -2293,7 +2312,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>42691</v>
       </c>
@@ -2307,7 +2326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>42704</v>
       </c>
@@ -2321,10 +2340,24 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>42786</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2339,13 +2372,13 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2477,15 +2510,15 @@
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -4407,23 +4440,23 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="37"/>
-    </row>
-    <row r="4" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B2" s="40"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>114</v>
       </c>
@@ -4433,16 +4466,16 @@
       <c r="C4" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="345" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="345" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>68</v>
       </c>
@@ -4452,25 +4485,25 @@
       <c r="C5" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="25" t="s">
         <v>113</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-    </row>
-    <row r="6" spans="1:12" ht="55.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+    </row>
+    <row r="6" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>122</v>
       </c>
@@ -4480,11 +4513,11 @@
       <c r="C6" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="22" t="s">
         <v>113</v>
       </c>
@@ -4499,11 +4532,11 @@
       <c r="C7" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="25" t="s">
         <v>113</v>
       </c>
@@ -4511,13 +4544,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="37"/>
-    </row>
-    <row r="12" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B10" s="40"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>114</v>
       </c>
@@ -4527,16 +4560,16 @@
       <c r="C12" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43"/>
       <c r="G12" s="21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="282" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="282" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>68</v>
       </c>
@@ -4546,25 +4579,25 @@
       <c r="C13" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="25" t="s">
         <v>113</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-    </row>
-    <row r="14" spans="1:12" ht="43.15" x14ac:dyDescent="0.3">
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+    </row>
+    <row r="14" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>122</v>
       </c>
@@ -4574,11 +4607,11 @@
       <c r="C14" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="22" t="s">
         <v>113</v>
       </c>
@@ -4593,11 +4626,11 @@
       <c r="C15" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
       <c r="G15" s="25" t="s">
         <v>113</v>
       </c>
@@ -4633,13 +4666,13 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4834,18 +4867,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>268</v>
       </c>
@@ -4868,7 +4901,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>270</v>
       </c>
@@ -4891,7 +4924,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>270</v>
       </c>
@@ -4914,7 +4947,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>270</v>
       </c>
@@ -4937,7 +4970,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>270</v>
       </c>
@@ -4960,7 +4993,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>270</v>
       </c>
@@ -4983,7 +5016,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>270</v>
       </c>
@@ -5006,7 +5039,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>270</v>
       </c>
@@ -5029,7 +5062,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>270</v>
       </c>
@@ -5052,7 +5085,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>270</v>
       </c>
@@ -5075,7 +5108,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>270</v>
       </c>
@@ -5098,7 +5131,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>270</v>
       </c>
@@ -5121,7 +5154,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>270</v>
       </c>
@@ -5144,7 +5177,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>270</v>
       </c>
@@ -5167,7 +5200,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -5190,7 +5223,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>270</v>
       </c>
@@ -5213,7 +5246,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>270</v>
       </c>
@@ -5236,7 +5269,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -5259,7 +5292,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>270</v>
       </c>
@@ -5282,7 +5315,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>270</v>
       </c>
@@ -5305,7 +5338,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>270</v>
       </c>
@@ -5328,7 +5361,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>270</v>
       </c>
@@ -5351,7 +5384,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>270</v>
       </c>
@@ -5374,7 +5407,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>270</v>
       </c>
@@ -5397,7 +5430,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>270</v>
       </c>
@@ -5420,7 +5453,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>270</v>
       </c>
@@ -5443,7 +5476,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>270</v>
       </c>
@@ -5466,7 +5499,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>270</v>
       </c>
@@ -5489,7 +5522,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>270</v>
       </c>
@@ -5512,7 +5545,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>270</v>
       </c>
@@ -5535,7 +5568,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>270</v>
       </c>
@@ -5558,7 +5591,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>270</v>
       </c>
@@ -5581,7 +5614,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>270</v>
       </c>
@@ -5604,7 +5637,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>270</v>
       </c>
@@ -5627,7 +5660,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>270</v>
       </c>
@@ -5650,7 +5683,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>270</v>
       </c>
@@ -5673,7 +5706,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>270</v>
       </c>
@@ -5696,7 +5729,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>270</v>
       </c>
@@ -5719,7 +5752,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>270</v>
       </c>
@@ -5742,7 +5775,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>270</v>
       </c>
@@ -5765,7 +5798,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>270</v>
       </c>
@@ -5788,7 +5821,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>270</v>
       </c>
@@ -5811,7 +5844,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>270</v>
       </c>
@@ -5834,7 +5867,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>270</v>
       </c>
@@ -5857,7 +5890,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>270</v>
       </c>
@@ -5880,7 +5913,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>270</v>
       </c>
@@ -5903,7 +5936,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>270</v>
       </c>
@@ -5926,7 +5959,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>270</v>
       </c>
@@ -5949,7 +5982,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>270</v>
       </c>
@@ -5972,7 +6005,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>270</v>
       </c>
@@ -5995,7 +6028,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>270</v>
       </c>
@@ -6018,7 +6051,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>270</v>
       </c>
@@ -6041,7 +6074,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>270</v>
       </c>
@@ -6064,7 +6097,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>270</v>
       </c>
@@ -6087,7 +6120,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>270</v>
       </c>
@@ -6110,7 +6143,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>270</v>
       </c>
@@ -6133,7 +6166,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>270</v>
       </c>
@@ -6156,7 +6189,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>270</v>
       </c>
@@ -6179,7 +6212,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>270</v>
       </c>
@@ -6202,7 +6235,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>270</v>
       </c>
@@ -6225,7 +6258,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>270</v>
       </c>
@@ -6248,7 +6281,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>270</v>
       </c>
@@ -6271,7 +6304,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>270</v>
       </c>
@@ -6294,7 +6327,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>270</v>
       </c>
@@ -6317,7 +6350,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>270</v>
       </c>
@@ -6340,7 +6373,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>270</v>
       </c>
@@ -6363,7 +6396,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>270</v>
       </c>
@@ -6386,7 +6419,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>270</v>
       </c>
@@ -6409,7 +6442,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>270</v>
       </c>
@@ -6432,7 +6465,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>270</v>
       </c>
@@ -6455,7 +6488,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>270</v>
       </c>
@@ -6478,7 +6511,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>270</v>
       </c>
@@ -6501,7 +6534,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>270</v>
       </c>
@@ -6524,7 +6557,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>270</v>
       </c>
@@ -6547,7 +6580,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>270</v>
       </c>
@@ -6570,7 +6603,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>270</v>
       </c>
@@ -6593,7 +6626,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>270</v>
       </c>
@@ -6616,7 +6649,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>270</v>
       </c>
@@ -6639,7 +6672,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>270</v>
       </c>
@@ -6662,7 +6695,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>270</v>
       </c>
@@ -6685,7 +6718,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>270</v>
       </c>
@@ -6708,7 +6741,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>270</v>
       </c>
@@ -6731,7 +6764,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>270</v>
       </c>
@@ -6754,7 +6787,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>270</v>
       </c>
@@ -6777,7 +6810,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>270</v>
       </c>
@@ -6800,7 +6833,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>270</v>
       </c>
@@ -6823,7 +6856,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>270</v>
       </c>
@@ -6846,7 +6879,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>270</v>
       </c>
@@ -6869,7 +6902,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>270</v>
       </c>
@@ -6892,7 +6925,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>270</v>
       </c>
@@ -6915,7 +6948,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>270</v>
       </c>
@@ -6938,7 +6971,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>270</v>
       </c>
@@ -6961,7 +6994,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>270</v>
       </c>
@@ -6984,7 +7017,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>270</v>
       </c>
@@ -7007,7 +7040,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>270</v>
       </c>
@@ -7030,7 +7063,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>270</v>
       </c>
@@ -7053,7 +7086,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>270</v>
       </c>
@@ -7076,7 +7109,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>270</v>
       </c>
@@ -7099,7 +7132,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>270</v>
       </c>
@@ -7122,7 +7155,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>270</v>
       </c>
@@ -7145,7 +7178,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>270</v>
       </c>
@@ -7168,7 +7201,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>270</v>
       </c>
@@ -7191,7 +7224,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>270</v>
       </c>
@@ -7214,7 +7247,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>270</v>
       </c>
@@ -7237,7 +7270,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>270</v>
       </c>
@@ -7260,7 +7293,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>270</v>
       </c>
@@ -7283,7 +7316,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>270</v>
       </c>
@@ -7306,7 +7339,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>270</v>
       </c>
@@ -7329,7 +7362,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>270</v>
       </c>
@@ -7352,7 +7385,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>270</v>
       </c>
@@ -7375,7 +7408,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>270</v>
       </c>
@@ -7398,7 +7431,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>270</v>
       </c>
@@ -7421,7 +7454,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>270</v>
       </c>
@@ -7444,7 +7477,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>270</v>
       </c>
@@ -7467,7 +7500,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>270</v>
       </c>
@@ -7490,7 +7523,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>270</v>
       </c>
@@ -7513,7 +7546,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>270</v>
       </c>
@@ -7536,7 +7569,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>270</v>
       </c>
@@ -7559,7 +7592,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>270</v>
       </c>
@@ -7582,7 +7615,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>270</v>
       </c>
@@ -7605,7 +7638,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>270</v>
       </c>
@@ -7628,7 +7661,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>270</v>
       </c>
@@ -7651,7 +7684,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>270</v>
       </c>
@@ -7674,7 +7707,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>270</v>
       </c>
@@ -7697,7 +7730,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>270</v>
       </c>
@@ -7720,7 +7753,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>270</v>
       </c>
@@ -7743,7 +7776,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>270</v>
       </c>
@@ -7766,7 +7799,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>270</v>
       </c>
@@ -7789,7 +7822,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>270</v>
       </c>
@@ -7812,7 +7845,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>270</v>
       </c>
@@ -7835,7 +7868,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>270</v>
       </c>
@@ -7858,7 +7891,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>270</v>
       </c>
@@ -7881,7 +7914,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>270</v>
       </c>
@@ -7904,7 +7937,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>270</v>
       </c>
@@ -7927,7 +7960,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>270</v>
       </c>
@@ -7950,7 +7983,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>270</v>
       </c>
@@ -7973,7 +8006,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>270</v>
       </c>
@@ -7996,7 +8029,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>270</v>
       </c>
@@ -8019,7 +8052,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>270</v>
       </c>
@@ -8042,7 +8075,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>270</v>
       </c>
@@ -8065,7 +8098,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>270</v>
       </c>
@@ -8088,7 +8121,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>270</v>
       </c>
@@ -8111,7 +8144,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>270</v>
       </c>
@@ -8134,7 +8167,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>270</v>
       </c>
@@ -8157,7 +8190,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>270</v>
       </c>
@@ -8180,7 +8213,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>270</v>
       </c>
@@ -8203,7 +8236,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>270</v>
       </c>
@@ -8237,7 +8270,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -8430,18 +8463,18 @@
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>268</v>
       </c>
@@ -8464,7 +8497,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>296</v>
       </c>
@@ -8487,7 +8520,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>296</v>
       </c>
@@ -8510,7 +8543,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>296</v>
       </c>
@@ -8533,7 +8566,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>296</v>
       </c>
@@ -8556,7 +8589,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>296</v>
       </c>
@@ -8579,7 +8612,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>296</v>
       </c>
@@ -8602,7 +8635,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>296</v>
       </c>
@@ -8625,7 +8658,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -8648,7 +8681,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>296</v>
       </c>
@@ -8671,7 +8704,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>296</v>
       </c>
@@ -8694,7 +8727,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>296</v>
       </c>
@@ -8717,7 +8750,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>296</v>
       </c>
@@ -8740,7 +8773,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>296</v>
       </c>
@@ -8763,7 +8796,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>296</v>
       </c>
@@ -8786,7 +8819,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>296</v>
       </c>
@@ -8809,7 +8842,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>296</v>
       </c>
@@ -8832,7 +8865,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>296</v>
       </c>
@@ -8855,7 +8888,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>296</v>
       </c>
@@ -8878,7 +8911,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>296</v>
       </c>
@@ -8901,7 +8934,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>296</v>
       </c>
@@ -8924,7 +8957,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>296</v>
       </c>
@@ -8947,7 +8980,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>296</v>
       </c>
@@ -8970,7 +9003,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>296</v>
       </c>
@@ -8993,7 +9026,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>296</v>
       </c>
@@ -9016,7 +9049,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>296</v>
       </c>
@@ -9039,7 +9072,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>296</v>
       </c>
@@ -9062,7 +9095,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>296</v>
       </c>
@@ -9085,7 +9118,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>296</v>
       </c>
@@ -9108,7 +9141,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>296</v>
       </c>
@@ -9131,7 +9164,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>296</v>
       </c>
@@ -9154,7 +9187,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>296</v>
       </c>
@@ -9177,7 +9210,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>296</v>
       </c>
@@ -9200,7 +9233,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>296</v>
       </c>
@@ -9223,7 +9256,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>296</v>
       </c>
@@ -9246,7 +9279,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>296</v>
       </c>
@@ -9269,7 +9302,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>296</v>
       </c>
@@ -9292,7 +9325,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>296</v>
       </c>
@@ -9315,7 +9348,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>296</v>
       </c>
@@ -9338,7 +9371,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>296</v>
       </c>
@@ -9361,7 +9394,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>296</v>
       </c>
@@ -9384,7 +9417,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>296</v>
       </c>
@@ -9407,7 +9440,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>296</v>
       </c>
@@ -9430,7 +9463,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>296</v>
       </c>
@@ -9453,7 +9486,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>296</v>
       </c>
@@ -9476,7 +9509,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>296</v>
       </c>
@@ -9499,7 +9532,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>296</v>
       </c>
@@ -9522,7 +9555,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>296</v>
       </c>
@@ -9545,7 +9578,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>296</v>
       </c>
@@ -9568,7 +9601,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>296</v>
       </c>
@@ -9591,7 +9624,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>296</v>
       </c>
@@ -9614,7 +9647,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>296</v>
       </c>
@@ -9637,7 +9670,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>296</v>
       </c>
@@ -9660,7 +9693,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>296</v>
       </c>
@@ -9683,7 +9716,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>296</v>
       </c>
@@ -9706,7 +9739,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>296</v>
       </c>
@@ -9726,7 +9759,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>296</v>
       </c>
@@ -9749,7 +9782,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>296</v>
       </c>
@@ -9772,7 +9805,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>296</v>
       </c>
@@ -9795,7 +9828,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>296</v>
       </c>
@@ -9818,7 +9851,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>296</v>
       </c>
@@ -9841,7 +9874,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>296</v>
       </c>
@@ -9864,7 +9897,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>296</v>
       </c>
@@ -9887,7 +9920,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>296</v>
       </c>
@@ -9910,7 +9943,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>296</v>
       </c>
@@ -9933,7 +9966,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>296</v>
       </c>
@@ -9956,7 +9989,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>296</v>
       </c>
@@ -9979,7 +10012,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>296</v>
       </c>
@@ -10002,7 +10035,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>296</v>
       </c>
@@ -10025,7 +10058,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>296</v>
       </c>
@@ -10045,7 +10078,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>296</v>
       </c>
@@ -10068,7 +10101,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>296</v>
       </c>
@@ -10091,7 +10124,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>296</v>
       </c>
@@ -10114,7 +10147,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>296</v>
       </c>
@@ -10137,7 +10170,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>296</v>
       </c>
@@ -10160,7 +10193,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>296</v>
       </c>
@@ -10183,7 +10216,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>296</v>
       </c>
@@ -10206,7 +10239,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>296</v>
       </c>
@@ -10229,7 +10262,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>296</v>
       </c>
@@ -10252,7 +10285,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>296</v>
       </c>
@@ -10275,7 +10308,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>296</v>
       </c>
@@ -10298,7 +10331,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>296</v>
       </c>
@@ -10321,7 +10354,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>296</v>
       </c>
@@ -10344,7 +10377,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>296</v>
       </c>
@@ -10367,7 +10400,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>296</v>
       </c>
@@ -10387,7 +10420,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>296</v>
       </c>
@@ -10410,7 +10443,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>296</v>
       </c>
@@ -10433,7 +10466,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>296</v>
       </c>
@@ -10456,7 +10489,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>296</v>
       </c>
@@ -10479,7 +10512,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>296</v>
       </c>
@@ -10502,7 +10535,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>296</v>
       </c>
@@ -10525,7 +10558,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>296</v>
       </c>
@@ -10548,7 +10581,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>296</v>
       </c>
@@ -10571,7 +10604,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>296</v>
       </c>
@@ -10594,7 +10627,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>296</v>
       </c>
@@ -10617,7 +10650,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>296</v>
       </c>
@@ -10640,7 +10673,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>296</v>
       </c>
@@ -10663,7 +10696,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>296</v>
       </c>
@@ -10686,7 +10719,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>296</v>
       </c>
@@ -10706,7 +10739,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>296</v>
       </c>
@@ -10729,7 +10762,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>296</v>
       </c>
@@ -10752,7 +10785,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>296</v>
       </c>
@@ -10775,7 +10808,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>296</v>
       </c>
@@ -10798,7 +10831,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>296</v>
       </c>
@@ -10821,7 +10854,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>296</v>
       </c>
@@ -10844,7 +10877,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>296</v>
       </c>
@@ -10867,7 +10900,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>296</v>
       </c>
@@ -10890,7 +10923,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>296</v>
       </c>
@@ -10913,7 +10946,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>296</v>
       </c>
@@ -10936,7 +10969,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>296</v>
       </c>
@@ -10959,7 +10992,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>296</v>
       </c>
@@ -10982,7 +11015,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>296</v>
       </c>
@@ -11005,7 +11038,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>296</v>
       </c>
@@ -11028,7 +11061,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>296</v>
       </c>
@@ -11051,7 +11084,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>296</v>
       </c>
@@ -11074,7 +11107,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>296</v>
       </c>
@@ -11097,7 +11130,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>296</v>
       </c>
@@ -11120,7 +11153,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>296</v>
       </c>
@@ -11143,7 +11176,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>296</v>
       </c>
@@ -11166,7 +11199,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>296</v>
       </c>
@@ -11189,7 +11222,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>296</v>
       </c>
@@ -11212,7 +11245,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>296</v>
       </c>
@@ -11235,7 +11268,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>296</v>
       </c>
@@ -11258,7 +11291,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>296</v>
       </c>
@@ -11278,7 +11311,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>296</v>
       </c>
@@ -11301,7 +11334,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>296</v>
       </c>
@@ -11324,7 +11357,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>296</v>
       </c>
@@ -11347,7 +11380,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>296</v>
       </c>
@@ -11370,7 +11403,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>296</v>
       </c>
@@ -11393,7 +11426,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>296</v>
       </c>
@@ -11416,7 +11449,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>296</v>
       </c>
@@ -11439,7 +11472,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>296</v>
       </c>
@@ -11462,7 +11495,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>296</v>
       </c>
@@ -11485,7 +11518,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>296</v>
       </c>
@@ -11508,7 +11541,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>296</v>
       </c>
@@ -11531,7 +11564,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>296</v>
       </c>
@@ -11554,7 +11587,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>296</v>
       </c>
@@ -11577,7 +11610,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>296</v>
       </c>
@@ -11600,7 +11633,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>296</v>
       </c>
@@ -11623,7 +11656,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>296</v>
       </c>
@@ -11657,13 +11690,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11740,15 +11773,15 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -12500,14 +12533,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -12851,26 +12884,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="51.85546875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="51.88671875" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12902,7 +12935,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -12916,7 +12949,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -12930,7 +12963,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -12944,7 +12977,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -12958,7 +12991,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -12972,7 +13005,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -12986,7 +13019,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -13000,7 +13033,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -13017,7 +13050,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -13031,7 +13064,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -13045,7 +13078,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -13059,7 +13092,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -13073,7 +13106,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -13087,7 +13120,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -13101,7 +13134,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -13118,7 +13151,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -13135,7 +13168,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -13152,7 +13185,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -13169,7 +13202,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -13186,7 +13219,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -13203,7 +13236,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -13220,7 +13253,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -13237,7 +13270,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -13254,7 +13287,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -13271,7 +13304,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -13288,9 +13321,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>362</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -13301,13 +13334,13 @@
       <c r="I27" t="s">
         <v>219</v>
       </c>
-      <c r="J27" s="30" t="s">
+      <c r="J27" s="33" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -13319,12 +13352,12 @@
         <v>219</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -13336,12 +13369,12 @@
         <v>219</v>
       </c>
       <c r="J29" s="30" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -13356,9 +13389,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -13370,6 +13403,23 @@
         <v>219</v>
       </c>
       <c r="J31" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" t="s">
+        <v>219</v>
+      </c>
+      <c r="J32" s="30" t="s">
         <v>209</v>
       </c>
     </row>
@@ -13392,28 +13442,28 @@
       <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="34"/>
-    </row>
-    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B2" s="35"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -13421,27 +13471,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -13449,27 +13499,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>144</v>
       </c>
@@ -13477,27 +13527,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>145</v>
       </c>
@@ -13505,27 +13555,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>146</v>
       </c>
@@ -13533,27 +13583,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>147</v>
       </c>
@@ -13561,21 +13611,21 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="34" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B36" s="34"/>
-    </row>
-    <row r="38" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B36" s="35"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>140</v>
       </c>
@@ -13583,7 +13633,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>143</v>
       </c>
@@ -13591,7 +13641,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>148</v>
       </c>
@@ -13599,7 +13649,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -13607,7 +13657,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>144</v>
       </c>
@@ -13615,7 +13665,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>150</v>
       </c>
@@ -13623,7 +13673,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>152</v>
       </c>
@@ -13631,7 +13681,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>153</v>
       </c>
@@ -13639,7 +13689,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>154</v>
       </c>
@@ -13647,7 +13697,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -13655,7 +13705,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>145</v>
       </c>
@@ -13663,27 +13713,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>156</v>
       </c>
@@ -13691,27 +13741,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>157</v>
       </c>
@@ -13719,27 +13769,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>147</v>
       </c>
@@ -13768,32 +13818,32 @@
       <selection activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>158</v>
       </c>
@@ -13801,7 +13851,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>159</v>
       </c>
@@ -13809,7 +13859,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>160</v>
       </c>
@@ -13817,7 +13867,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -13825,27 +13875,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>162</v>
       </c>
@@ -13853,27 +13903,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>282</v>
       </c>
@@ -13881,27 +13931,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>288</v>
       </c>
@@ -13909,27 +13959,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>144</v>
       </c>
@@ -13937,7 +13987,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>163</v>
       </c>
@@ -13945,7 +13995,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -13953,7 +14003,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>164</v>
       </c>
@@ -13961,7 +14011,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>165</v>
       </c>
@@ -13969,27 +14019,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>166</v>
       </c>
@@ -13997,7 +14047,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>167</v>
       </c>
@@ -14005,7 +14055,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>168</v>
       </c>
@@ -14013,7 +14063,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>169</v>
       </c>
@@ -14021,17 +14071,17 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>170</v>
       </c>
@@ -14039,7 +14089,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>171</v>
       </c>
@@ -14047,27 +14097,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>145</v>
       </c>
@@ -14075,27 +14125,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>172</v>
       </c>
@@ -14103,27 +14153,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>146</v>
       </c>
@@ -14131,7 +14181,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>173</v>
       </c>
@@ -14139,27 +14189,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>174</v>
       </c>
@@ -14167,27 +14217,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>175</v>
       </c>
@@ -14195,7 +14245,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>176</v>
       </c>
@@ -14203,7 +14253,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>177</v>
       </c>
@@ -14211,27 +14261,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>178</v>
       </c>
@@ -14239,7 +14289,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>156</v>
       </c>
@@ -14247,91 +14297,91 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>110</v>
       </c>
-      <c r="C81" s="35" t="s">
+      <c r="C81" s="36" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>157</v>
       </c>
       <c r="B82" t="s">
         <v>111</v>
       </c>
-      <c r="C82" s="35"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="36"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>141</v>
       </c>
-      <c r="C83" s="35"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="36"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>142</v>
       </c>
-      <c r="C84" s="35"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="36"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>109</v>
       </c>
-      <c r="C85" s="35"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="36"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>110</v>
       </c>
-      <c r="C86" s="35"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="36"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>147</v>
       </c>
       <c r="B87" t="s">
         <v>108</v>
       </c>
-      <c r="C87" s="35"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="36"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>179</v>
       </c>
       <c r="B88" t="s">
         <v>141</v>
       </c>
-      <c r="C88" s="35"/>
-    </row>
-    <row r="89" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C88" s="36"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>100</v>
       </c>
@@ -14339,7 +14389,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>101</v>
       </c>
@@ -14347,7 +14397,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>180</v>
       </c>
@@ -14355,7 +14405,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>103</v>
       </c>
@@ -14363,7 +14413,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -14371,7 +14421,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>105</v>
       </c>
@@ -14379,7 +14429,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>106</v>
       </c>
@@ -14387,7 +14437,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>107</v>
       </c>
@@ -14395,24 +14445,24 @@
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="12"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B102" s="33" t="s">
+      <c r="B102" s="34" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="B103" s="34"/>
-    </row>
-    <row r="105" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B103" s="35"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>158</v>
       </c>
@@ -14420,7 +14470,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>148</v>
       </c>
@@ -14428,27 +14478,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>282</v>
       </c>
@@ -14456,27 +14506,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>288</v>
       </c>
@@ -14484,27 +14534,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>144</v>
       </c>
@@ -14512,7 +14562,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>163</v>
       </c>
@@ -14520,7 +14570,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>151</v>
       </c>
@@ -14528,7 +14578,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>164</v>
       </c>
@@ -14536,7 +14586,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>165</v>
       </c>
@@ -14544,27 +14594,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>167</v>
       </c>
@@ -14572,7 +14622,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>168</v>
       </c>
@@ -14580,7 +14630,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>170</v>
       </c>
@@ -14588,27 +14638,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>171</v>
       </c>
@@ -14616,27 +14666,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>145</v>
       </c>
@@ -14644,27 +14694,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>172</v>
       </c>
@@ -14672,27 +14722,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>146</v>
       </c>
@@ -14700,7 +14750,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>173</v>
       </c>
@@ -14708,27 +14758,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>175</v>
       </c>
@@ -14736,7 +14786,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>176</v>
       </c>
@@ -14744,81 +14794,81 @@
         <v>108</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>177</v>
       </c>
       <c r="B160" t="s">
         <v>111</v>
       </c>
-      <c r="C160" s="35" t="s">
+      <c r="C160" s="36" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>141</v>
       </c>
-      <c r="C161" s="35"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="36"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>142</v>
       </c>
-      <c r="C162" s="35"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="36"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>109</v>
       </c>
-      <c r="C163" s="35"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="36"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>110</v>
       </c>
-      <c r="C164" s="35"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="36"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>178</v>
       </c>
       <c r="B165" t="s">
         <v>108</v>
       </c>
-      <c r="C165" s="35"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="36"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>156</v>
       </c>
       <c r="B166" t="s">
         <v>111</v>
       </c>
-      <c r="C166" s="35"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="36"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>141</v>
       </c>
-      <c r="C167" s="35"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="36"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>157</v>
       </c>
@@ -14826,27 +14876,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>147</v>
       </c>
@@ -14854,7 +14904,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>99</v>
       </c>
@@ -14862,17 +14912,17 @@
         <v>141</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>100</v>
       </c>
@@ -14880,7 +14930,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>101</v>
       </c>
@@ -14888,7 +14938,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>180</v>
       </c>
@@ -14896,7 +14946,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>103</v>
       </c>
@@ -14904,7 +14954,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>104</v>
       </c>
@@ -14912,7 +14962,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>105</v>
       </c>
@@ -14920,7 +14970,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>106</v>
       </c>
@@ -14928,7 +14978,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>107</v>
       </c>
@@ -14960,17 +15010,17 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.109375" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15393,21 +15443,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="38"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -15902,13 +15952,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16083,18 +16133,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>268</v>
       </c>
@@ -16117,7 +16167,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>329</v>
       </c>
@@ -16140,7 +16190,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>329</v>
       </c>
@@ -16163,7 +16213,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>329</v>
       </c>
@@ -16186,7 +16236,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>329</v>
       </c>
@@ -16209,7 +16259,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>329</v>
       </c>
@@ -16232,7 +16282,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>329</v>
       </c>
@@ -16255,7 +16305,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>329</v>
       </c>
@@ -16275,7 +16325,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>329</v>
       </c>
@@ -16298,7 +16348,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>329</v>
       </c>
@@ -16321,7 +16371,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>329</v>
       </c>
@@ -16344,7 +16394,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>329</v>
       </c>
@@ -16367,7 +16417,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>329</v>
       </c>
@@ -16390,7 +16440,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>329</v>
       </c>
@@ -16413,7 +16463,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>329</v>
       </c>
@@ -16436,7 +16486,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>329</v>
       </c>
@@ -16459,7 +16509,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>329</v>
       </c>
@@ -16482,7 +16532,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>329</v>
       </c>
@@ -16502,7 +16552,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>329</v>
       </c>
@@ -16525,7 +16575,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>329</v>
       </c>
@@ -16548,7 +16598,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>329</v>
       </c>
@@ -16571,7 +16621,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>329</v>
       </c>
@@ -16594,7 +16644,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>329</v>
       </c>
@@ -16617,7 +16667,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>329</v>
       </c>
@@ -16640,7 +16690,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>329</v>
       </c>
@@ -16663,7 +16713,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>329</v>
       </c>
@@ -16686,7 +16736,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>329</v>
       </c>
@@ -16709,7 +16759,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>329</v>
       </c>
@@ -16732,7 +16782,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>329</v>
       </c>
@@ -16755,7 +16805,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>329</v>
       </c>
@@ -16778,7 +16828,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>329</v>
       </c>
@@ -16801,7 +16851,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>329</v>
       </c>
@@ -16824,7 +16874,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>329</v>
       </c>
@@ -16847,7 +16897,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>329</v>
       </c>
@@ -16870,7 +16920,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>329</v>
       </c>
@@ -16893,7 +16943,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>329</v>
       </c>
@@ -16916,7 +16966,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>329</v>
       </c>
@@ -16939,7 +16989,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>329</v>
       </c>
@@ -16962,7 +17012,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>329</v>
       </c>
@@ -16985,7 +17035,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>329</v>
       </c>
@@ -17008,7 +17058,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>329</v>
       </c>
@@ -17031,7 +17081,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>329</v>
       </c>
@@ -17054,7 +17104,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>329</v>
       </c>
@@ -17077,7 +17127,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>329</v>
       </c>
@@ -17097,7 +17147,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>329</v>
       </c>
@@ -17120,7 +17170,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>329</v>
       </c>
@@ -17143,7 +17193,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>329</v>
       </c>
@@ -17166,7 +17216,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>329</v>
       </c>
@@ -17189,7 +17239,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>329</v>
       </c>
@@ -17212,7 +17262,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>329</v>
       </c>
@@ -17235,7 +17285,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>329</v>
       </c>
@@ -17258,7 +17308,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>329</v>
       </c>
@@ -17281,7 +17331,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>329</v>
       </c>
@@ -17304,7 +17354,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>329</v>
       </c>
@@ -17327,7 +17377,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>329</v>
       </c>
@@ -17350,7 +17400,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>329</v>
       </c>
@@ -17373,7 +17423,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>329</v>
       </c>
@@ -17396,7 +17446,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>329</v>
       </c>
@@ -17419,7 +17469,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>329</v>
       </c>
@@ -17442,7 +17492,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>329</v>
       </c>
@@ -17465,7 +17515,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>329</v>
       </c>
@@ -17488,7 +17538,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>329</v>
       </c>
@@ -17511,7 +17561,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>329</v>
       </c>
@@ -17534,7 +17584,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>329</v>
       </c>
@@ -17557,7 +17607,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>329</v>
       </c>
@@ -17580,7 +17630,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>329</v>
       </c>
@@ -17603,7 +17653,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>329</v>
       </c>
@@ -17626,7 +17676,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>329</v>
       </c>
@@ -17649,7 +17699,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>329</v>
       </c>
@@ -17672,7 +17722,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>329</v>
       </c>
@@ -17695,7 +17745,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>329</v>
       </c>
@@ -17718,7 +17768,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>329</v>
       </c>
@@ -17741,7 +17791,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>329</v>
       </c>
@@ -17764,7 +17814,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>329</v>
       </c>
@@ -17787,7 +17837,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>329</v>
       </c>
@@ -17810,7 +17860,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>329</v>
       </c>
@@ -17833,7 +17883,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>329</v>
       </c>
@@ -17856,7 +17906,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>329</v>
       </c>
@@ -17879,7 +17929,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>329</v>
       </c>
@@ -17902,7 +17952,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>329</v>
       </c>
@@ -17925,7 +17975,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>329</v>
       </c>
@@ -17948,7 +17998,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>329</v>
       </c>
@@ -17971,7 +18021,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>329</v>
       </c>
@@ -17994,7 +18044,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>329</v>
       </c>
@@ -18017,7 +18067,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>329</v>
       </c>
@@ -18040,7 +18090,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>329</v>
       </c>
@@ -18063,7 +18113,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>329</v>
       </c>
@@ -18086,7 +18136,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>329</v>
       </c>
@@ -18109,7 +18159,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>329</v>
       </c>
@@ -18132,7 +18182,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>329</v>
       </c>
@@ -18155,7 +18205,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>329</v>
       </c>
@@ -18178,7 +18228,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>329</v>
       </c>
@@ -18201,7 +18251,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>329</v>
       </c>
@@ -18224,7 +18274,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>329</v>
       </c>
@@ -18247,7 +18297,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>329</v>
       </c>
@@ -18270,7 +18320,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>329</v>
       </c>
@@ -18293,7 +18343,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>329</v>
       </c>
@@ -18316,7 +18366,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>329</v>
       </c>
@@ -18339,7 +18389,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>329</v>
       </c>
@@ -18362,7 +18412,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>329</v>
       </c>
@@ -18385,7 +18435,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>329</v>
       </c>
@@ -18408,7 +18458,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>329</v>
       </c>
@@ -18431,7 +18481,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>329</v>
       </c>
@@ -18454,7 +18504,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>329</v>
       </c>
@@ -18477,7 +18527,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>329</v>
       </c>
@@ -18500,7 +18550,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>329</v>
       </c>
@@ -18523,7 +18573,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>329</v>
       </c>
@@ -18546,7 +18596,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>329</v>
       </c>
@@ -18569,7 +18619,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>329</v>
       </c>
@@ -18592,7 +18642,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>329</v>
       </c>
@@ -18615,7 +18665,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>329</v>
       </c>
@@ -18638,7 +18688,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>329</v>
       </c>
@@ -18661,7 +18711,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>329</v>
       </c>
@@ -18684,7 +18734,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>329</v>
       </c>
@@ -18707,7 +18757,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>329</v>
       </c>
@@ -18730,7 +18780,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>329</v>
       </c>
@@ -18753,7 +18803,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>329</v>
       </c>
@@ -18776,7 +18826,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>329</v>
       </c>
@@ -18799,7 +18849,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>329</v>
       </c>
@@ -18822,7 +18872,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>329</v>
       </c>
@@ -18845,7 +18895,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>329</v>
       </c>
@@ -18868,7 +18918,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>329</v>
       </c>
@@ -18891,7 +18941,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>329</v>
       </c>
@@ -18914,7 +18964,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>329</v>
       </c>
@@ -18937,7 +18987,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>329</v>
       </c>
@@ -18960,7 +19010,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>329</v>
       </c>
@@ -18983,7 +19033,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>329</v>
       </c>
@@ -19006,7 +19056,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>329</v>
       </c>
@@ -19029,7 +19079,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>329</v>
       </c>
@@ -19052,7 +19102,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>329</v>
       </c>
@@ -19075,7 +19125,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>329</v>
       </c>
@@ -19098,7 +19148,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>329</v>
       </c>
@@ -19121,7 +19171,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>329</v>
       </c>
@@ -19144,7 +19194,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>329</v>
       </c>
@@ -19167,7 +19217,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>329</v>
       </c>
@@ -19190,7 +19240,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>329</v>
       </c>
@@ -19213,7 +19263,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>329</v>
       </c>
@@ -19236,7 +19286,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>329</v>
       </c>
@@ -19259,7 +19309,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>329</v>
       </c>
@@ -19282,7 +19332,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>329</v>
       </c>
@@ -19305,7 +19355,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>329</v>
       </c>
@@ -19328,7 +19378,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>329</v>
       </c>
@@ -19351,7 +19401,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>329</v>
       </c>
@@ -19374,7 +19424,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>329</v>
       </c>
@@ -19397,7 +19447,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>329</v>
       </c>
@@ -19420,7 +19470,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>329</v>
       </c>
@@ -19443,7 +19493,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>329</v>
       </c>
@@ -19466,7 +19516,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>329</v>
       </c>
@@ -19489,7 +19539,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>329</v>
       </c>
@@ -19512,7 +19562,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>329</v>
       </c>
@@ -19535,7 +19585,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>329</v>
       </c>
@@ -19558,7 +19608,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>329</v>
       </c>
@@ -19581,7 +19631,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>329</v>
       </c>
@@ -19604,7 +19654,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>329</v>
       </c>
@@ -19627,7 +19677,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>329</v>
       </c>

--- a/Project Management/eCoaching_Log_Permissions.xlsx
+++ b/Project Management/eCoaching_Log_Permissions.xlsx
@@ -33,7 +33,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Database Access'!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Staging server file providers'!$A$1:$J$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Staging server file providers'!$A$1:$J$22</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4926" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5064" uniqueCount="405">
   <si>
     <t>name</t>
   </si>
@@ -1588,12 +1588,114 @@
   <si>
     <t>Removed database access for Jay Stephens and Jason Peters. Moved from CCO. SR2221784- During SQL Server cutover.SR2221784</t>
   </si>
+  <si>
+    <t>\\F3420-ECLDBP01\*FeedDirectory*\</t>
+  </si>
+  <si>
+    <t>Mark Hackman</t>
+  </si>
+  <si>
+    <t>IQS</t>
+  </si>
+  <si>
+    <t>\\F3420-ECLDBT01\ssis\ -- E:\SSIS\</t>
+  </si>
+  <si>
+    <t>\\F3420-ECLDBT01\data\ -- E:\Data\</t>
+  </si>
+  <si>
+    <t>*(including all sub directories)</t>
+  </si>
+  <si>
+    <t>Permissions</t>
+  </si>
+  <si>
+    <t>Full Control access for the following users and accounts</t>
+  </si>
+  <si>
+    <t>vngt\211palasu</t>
+  </si>
+  <si>
+    <t>vngt\211huanli</t>
+  </si>
+  <si>
+    <t>ad\doug.stearns</t>
+  </si>
+  <si>
+    <t>ad\brian.coughlin</t>
+  </si>
+  <si>
+    <t>ad\lisa.stein</t>
+  </si>
+  <si>
+    <t>ad\lili.huang</t>
+  </si>
+  <si>
+    <t>ad\susmitha.palacherla</t>
+  </si>
+  <si>
+    <t>ad\david.hinman</t>
+  </si>
+  <si>
+    <t>VNGT\svc-sqleclt01</t>
+  </si>
+  <si>
+    <t>\\F3420-ECLDBD01\ssis\   -- E:\SSIS\</t>
+  </si>
+  <si>
+    <t>\\F3420-ECLDBD01\data\ -- E:\Data\</t>
+  </si>
+  <si>
+    <t>VNGT\svc-sqlecld01</t>
+  </si>
+  <si>
+    <t>\\F3420-ECLDBP01\ssis\ -- E:\SSIS\</t>
+  </si>
+  <si>
+    <t>\\F3420-ECLDBP01\data\ -- E:\Data\</t>
+  </si>
+  <si>
+    <t>VNGT\svc-sqleclp01</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>Add ATT team accounts access to the HrInfo DB shares to pick up the Employee file. SR2407922 and SR2446153</t>
+  </si>
+  <si>
+    <t>VNGT\svc-appeasesqlt01</t>
+  </si>
+  <si>
+    <t>AD\SA-Lex.Mishra</t>
+  </si>
+  <si>
+    <t>AD\lex.mishra</t>
+  </si>
+  <si>
+    <t>VNGT\svc-appeasesqld01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\f3420-ecldbd01\data\coaching\hrinfo\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\f3420-ecldbt01\data\coaching\hrinfo\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\f3420-ecldbp01\data\coaching\hrinfo\ </t>
+  </si>
+  <si>
+    <t>VNGT\svc-appeasesqlp01</t>
+  </si>
+  <si>
+    <t>Requested by Lex. Approved my Mike Ingram.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1696,6 +1798,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1723,7 +1831,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1751,21 +1859,6 @@
         <color auto="1"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="hair">
@@ -1883,7 +1976,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1897,37 +1990,36 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1943,11 +2035,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1959,40 +2051,46 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2274,17 +2372,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" style="11" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="66.109375" customWidth="1"/>
   </cols>
@@ -2310,7 +2406,7 @@
       <c r="B2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
@@ -2324,7 +2420,7 @@
       <c r="B3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D3" t="s">
@@ -2338,7 +2434,7 @@
       <c r="B4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D4" t="s">
@@ -2352,7 +2448,7 @@
       <c r="B5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>78</v>
       </c>
       <c r="D5" t="s">
@@ -2366,7 +2462,7 @@
       <c r="B6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>352</v>
       </c>
       <c r="D6" t="s">
@@ -2380,7 +2476,7 @@
       <c r="B7" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>354</v>
       </c>
       <c r="D7" t="s">
@@ -2397,7 +2493,7 @@
       <c r="B8" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>358</v>
       </c>
       <c r="D8" t="s">
@@ -2408,7 +2504,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>370</v>
       </c>
       <c r="D9" t="s">
@@ -2422,7 +2518,7 @@
       <c r="A10" s="4">
         <v>43013</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>369</v>
       </c>
       <c r="D10" t="s">
@@ -2430,6 +2526,23 @@
       </c>
       <c r="E10" t="s">
         <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>43081</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -2440,10 +2553,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2573,7 +2686,110 @@
         <v>214</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="51" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="50" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="50" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="50" t="s">
+        <v>398</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A30" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4525,190 +4741,190 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="21" t="s">
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="20" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="345" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="25" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
     </row>
     <row r="6" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="22" t="s">
+      <c r="E6" s="42"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="21" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="25" t="s">
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="49"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="21" t="s">
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="20" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="282" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="25" t="s">
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I13" s="45" t="s">
+      <c r="I13" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
     </row>
     <row r="14" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="22" t="s">
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="21" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="25" t="s">
+      <c r="E15" s="46"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="11" t="s">
         <v>126</v>
       </c>
     </row>
@@ -12618,48 +12834,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>84</v>
       </c>
     </row>
@@ -12980,7 +13196,7 @@
     <col min="6" max="6" width="9.109375" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
     <col min="8" max="8" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="51.88671875" style="30" customWidth="1"/>
+    <col min="10" max="10" width="51.88671875" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -13011,7 +13227,7 @@
       <c r="I1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>212</v>
       </c>
     </row>
@@ -13227,7 +13443,7 @@
       <c r="F16" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="30" t="s">
+      <c r="J16" s="29" t="s">
         <v>202</v>
       </c>
     </row>
@@ -13244,7 +13460,7 @@
       <c r="F17" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="30" t="s">
+      <c r="J17" s="29" t="s">
         <v>202</v>
       </c>
     </row>
@@ -13261,7 +13477,7 @@
       <c r="F18" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="29" t="s">
         <v>202</v>
       </c>
     </row>
@@ -13278,7 +13494,7 @@
       <c r="H19" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="J19" s="29" t="s">
         <v>203</v>
       </c>
     </row>
@@ -13295,7 +13511,7 @@
       <c r="H20" t="s">
         <v>44</v>
       </c>
-      <c r="J20" s="30" t="s">
+      <c r="J20" s="29" t="s">
         <v>203</v>
       </c>
     </row>
@@ -13312,7 +13528,7 @@
       <c r="H21" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="30" t="s">
+      <c r="J21" s="29" t="s">
         <v>203</v>
       </c>
     </row>
@@ -13329,7 +13545,7 @@
       <c r="I22" t="s">
         <v>44</v>
       </c>
-      <c r="J22" s="30" t="s">
+      <c r="J22" s="29" t="s">
         <v>204</v>
       </c>
     </row>
@@ -13346,7 +13562,7 @@
       <c r="I23" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="30" t="s">
+      <c r="J23" s="29" t="s">
         <v>204</v>
       </c>
     </row>
@@ -13363,7 +13579,7 @@
       <c r="I24" t="s">
         <v>44</v>
       </c>
-      <c r="J24" s="30" t="s">
+      <c r="J24" s="29" t="s">
         <v>204</v>
       </c>
     </row>
@@ -13380,7 +13596,7 @@
       <c r="I25" t="s">
         <v>44</v>
       </c>
-      <c r="J25" s="32" t="s">
+      <c r="J25" s="31" t="s">
         <v>205</v>
       </c>
     </row>
@@ -13397,7 +13613,7 @@
       <c r="I26" t="s">
         <v>44</v>
       </c>
-      <c r="J26" s="30" t="s">
+      <c r="J26" s="29" t="s">
         <v>205</v>
       </c>
     </row>
@@ -13414,7 +13630,7 @@
       <c r="I27" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="30" t="s">
+      <c r="J27" s="29" t="s">
         <v>206</v>
       </c>
     </row>
@@ -13431,7 +13647,7 @@
       <c r="I28" t="s">
         <v>44</v>
       </c>
-      <c r="J28" s="30" t="s">
+      <c r="J28" s="29" t="s">
         <v>204</v>
       </c>
     </row>
@@ -13448,7 +13664,7 @@
       <c r="I29" t="s">
         <v>44</v>
       </c>
-      <c r="J29" s="30" t="s">
+      <c r="J29" s="29" t="s">
         <v>204</v>
       </c>
     </row>
@@ -13465,7 +13681,7 @@
       <c r="I30" t="s">
         <v>44</v>
       </c>
-      <c r="J30" s="30" t="s">
+      <c r="J30" s="29" t="s">
         <v>204</v>
       </c>
     </row>
@@ -13510,18 +13726,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -13672,18 +13888,18 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="33" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="34"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -13886,22 +14102,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -14376,7 +14592,7 @@
       <c r="B81" t="s">
         <v>106</v>
       </c>
-      <c r="C81" s="36" t="s">
+      <c r="C81" s="35" t="s">
         <v>108</v>
       </c>
     </row>
@@ -14387,31 +14603,31 @@
       <c r="B82" t="s">
         <v>107</v>
       </c>
-      <c r="C82" s="36"/>
+      <c r="C82" s="35"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>137</v>
       </c>
-      <c r="C83" s="36"/>
+      <c r="C83" s="35"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>138</v>
       </c>
-      <c r="C84" s="36"/>
+      <c r="C84" s="35"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>105</v>
       </c>
-      <c r="C85" s="36"/>
+      <c r="C85" s="35"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>106</v>
       </c>
-      <c r="C86" s="36"/>
+      <c r="C86" s="35"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
@@ -14420,7 +14636,7 @@
       <c r="B87" t="s">
         <v>104</v>
       </c>
-      <c r="C87" s="36"/>
+      <c r="C87" s="35"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
@@ -14429,7 +14645,7 @@
       <c r="B88" t="s">
         <v>137</v>
       </c>
-      <c r="C88" s="36"/>
+      <c r="C88" s="35"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
@@ -14506,21 +14722,21 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="12"/>
+      <c r="A99" s="11"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="15" t="s">
+      <c r="A102" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B102" s="34" t="s">
+      <c r="B102" s="33" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="29" t="s">
+      <c r="A103" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="B103" s="35"/>
+      <c r="B103" s="34"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
@@ -14861,7 +15077,7 @@
       <c r="B160" t="s">
         <v>107</v>
       </c>
-      <c r="C160" s="36" t="s">
+      <c r="C160" s="35" t="s">
         <v>108</v>
       </c>
     </row>
@@ -14869,25 +15085,25 @@
       <c r="B161" t="s">
         <v>137</v>
       </c>
-      <c r="C161" s="36"/>
+      <c r="C161" s="35"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>138</v>
       </c>
-      <c r="C162" s="36"/>
+      <c r="C162" s="35"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>105</v>
       </c>
-      <c r="C163" s="36"/>
+      <c r="C163" s="35"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>106</v>
       </c>
-      <c r="C164" s="36"/>
+      <c r="C164" s="35"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
@@ -14896,7 +15112,7 @@
       <c r="B165" t="s">
         <v>104</v>
       </c>
-      <c r="C165" s="36"/>
+      <c r="C165" s="35"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
@@ -14905,13 +15121,13 @@
       <c r="B166" t="s">
         <v>107</v>
       </c>
-      <c r="C166" s="36"/>
+      <c r="C166" s="35"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>137</v>
       </c>
-      <c r="C167" s="36"/>
+      <c r="C167" s="35"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
@@ -15063,11 +15279,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15080,36 +15296,35 @@
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>40</v>
       </c>
     </row>
@@ -15117,24 +15332,26 @@
       <c r="A3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="10"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -15145,14 +15362,14 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="10"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -15161,14 +15378,14 @@
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="10"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -15177,30 +15394,30 @@
         <v>44</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="10"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+        <v>372</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="I7" s="8"/>
-      <c r="J7" s="10"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
         <v>44</v>
@@ -15209,14 +15426,14 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="10"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
         <v>44</v>
@@ -15225,46 +15442,46 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="10"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+        <v>43</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="10"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>44</v>
       </c>
+      <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="10"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -15272,22 +15489,18 @@
       <c r="H12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="10"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
         <v>44</v>
@@ -15295,30 +15508,34 @@
       <c r="I13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="10"/>
+      <c r="I14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -15327,30 +15544,30 @@
         <v>44</v>
       </c>
       <c r="I15" s="8"/>
-      <c r="J15" s="10"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="10"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -15359,14 +15576,14 @@
       <c r="I17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="10"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -15375,95 +15592,95 @@
       <c r="I18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="10"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="10" t="s">
+      <c r="I19" s="8" t="s">
         <v>44</v>
       </c>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+        <v>59</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="10"/>
+      <c r="J22" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="10"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="8" t="s">
         <v>44</v>
       </c>
@@ -15471,47 +15688,543 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="10"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+        <v>80</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="10"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="A26" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="H26" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="I26" s="8"/>
-      <c r="J26" s="10"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J21"/>
+  <autoFilter ref="A1:J22"/>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A33" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -15519,7 +16232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
@@ -15530,10 +16243,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="37"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -16022,10 +16735,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16198,8 +16911,214 @@
         <v>214</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="51" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="50" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="50" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="50" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="51" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="50" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="50" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="50" t="s">
+        <v>398</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A35" r:id="rId1" display="\\f3420-ecldbd01\data\coaching\hrinfo\Encryption_Out\"/>
+    <hyperlink ref="A64" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
